--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -68,45 +68,12 @@
     <t>6198931060</t>
   </si>
   <si>
-    <t>CBHU8793284</t>
+    <t>BMOU4797358</t>
   </si>
   <si>
     <t>EVER ELITE</t>
   </si>
   <si>
-    <t>7075346728</t>
-  </si>
-  <si>
-    <t>6202913150</t>
-  </si>
-  <si>
-    <t>AMFU8780988</t>
-  </si>
-  <si>
-    <t>TCNU1206516</t>
-  </si>
-  <si>
-    <t>DFSU6092008</t>
-  </si>
-  <si>
-    <t>CCLU7905672</t>
-  </si>
-  <si>
-    <t>EMCU1432958</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>7075336638</t>
-  </si>
-  <si>
-    <t>061900005604</t>
-  </si>
-  <si>
-    <t>BMOU4797358</t>
-  </si>
-  <si>
     <t>DJLAXA3780305</t>
   </si>
   <si>
@@ -114,6 +81,21 @@
   </si>
   <si>
     <t>061900007453</t>
+  </si>
+  <si>
+    <t>EGHU9300547</t>
+  </si>
+  <si>
+    <t>EVER LYRIC</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>7075330284</t>
+  </si>
+  <si>
+    <t>102900004684</t>
   </si>
 </sst>
 </file>
@@ -158,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -238,130 +220,30 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -68,22 +68,49 @@
     <t>6198931060</t>
   </si>
   <si>
-    <t>BMOU4797358</t>
-  </si>
-  <si>
-    <t>EVER ELITE</t>
-  </si>
-  <si>
-    <t>DJLAXA3780305</t>
-  </si>
-  <si>
-    <t>7075342252</t>
-  </si>
-  <si>
-    <t>061900007453</t>
-  </si>
-  <si>
-    <t>EGHU9300547</t>
+    <t>EGHU3700757</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>7075354073</t>
+  </si>
+  <si>
+    <t>082900035069</t>
+  </si>
+  <si>
+    <t>EGHU3308880</t>
+  </si>
+  <si>
+    <t>016E</t>
+  </si>
+  <si>
+    <t>7075350979</t>
+  </si>
+  <si>
+    <t>100950048093</t>
+  </si>
+  <si>
+    <t>MAGU5450598</t>
+  </si>
+  <si>
+    <t>7075356115</t>
+  </si>
+  <si>
+    <t>003900468101</t>
+  </si>
+  <si>
+    <t>HMCU9155404</t>
+  </si>
+  <si>
+    <t>7075356110</t>
+  </si>
+  <si>
+    <t>003900213137</t>
+  </si>
+  <si>
+    <t>EGHU3392633</t>
   </si>
   <si>
     <t>EVER LYRIC</t>
@@ -92,10 +119,139 @@
     <t>025</t>
   </si>
   <si>
-    <t>7075330284</t>
-  </si>
-  <si>
-    <t>102900004684</t>
+    <t>7075350341</t>
+  </si>
+  <si>
+    <t>082900028356</t>
+  </si>
+  <si>
+    <t>EITU1141060</t>
+  </si>
+  <si>
+    <t>7075354074</t>
+  </si>
+  <si>
+    <t>082900035077</t>
+  </si>
+  <si>
+    <t>OOLU7823190</t>
+  </si>
+  <si>
+    <t>EVER SIGMA</t>
+  </si>
+  <si>
+    <t>01079</t>
+  </si>
+  <si>
+    <t>7075373256</t>
+  </si>
+  <si>
+    <t>6202926080</t>
+  </si>
+  <si>
+    <t>CSNU4049251</t>
+  </si>
+  <si>
+    <t>CCLU5272111</t>
+  </si>
+  <si>
+    <t>CBHU6350970</t>
+  </si>
+  <si>
+    <t>CCLU4729760</t>
+  </si>
+  <si>
+    <t>TCNU4422951</t>
+  </si>
+  <si>
+    <t>7075356569</t>
+  </si>
+  <si>
+    <t>EGLV082900032086</t>
+  </si>
+  <si>
+    <t>CCLU5132207</t>
+  </si>
+  <si>
+    <t>7075373258</t>
+  </si>
+  <si>
+    <t>6202922920</t>
+  </si>
+  <si>
+    <t>CCLU7972520</t>
+  </si>
+  <si>
+    <t>FSCU8718122</t>
+  </si>
+  <si>
+    <t>BSIU9306067</t>
+  </si>
+  <si>
+    <t>BMOU5135145</t>
+  </si>
+  <si>
+    <t>EVER BRAVE</t>
+  </si>
+  <si>
+    <t>008B</t>
+  </si>
+  <si>
+    <t>7075356564</t>
+  </si>
+  <si>
+    <t>EGLV082900032132</t>
+  </si>
+  <si>
+    <t>EITU1046355</t>
+  </si>
+  <si>
+    <t>7075356567</t>
+  </si>
+  <si>
+    <t>EGLV082900032116</t>
+  </si>
+  <si>
+    <t>EISU9481972</t>
+  </si>
+  <si>
+    <t>CAPE AKRITAS</t>
+  </si>
+  <si>
+    <t>00970</t>
+  </si>
+  <si>
+    <t>7075364086</t>
+  </si>
+  <si>
+    <t>149900640951</t>
+  </si>
+  <si>
+    <t>BMOU5457007</t>
+  </si>
+  <si>
+    <t>TCLU5640992</t>
+  </si>
+  <si>
+    <t>DJLAXA3857672</t>
+  </si>
+  <si>
+    <t>7075357005</t>
+  </si>
+  <si>
+    <t>061900011264</t>
+  </si>
+  <si>
+    <t>EMCU9847797</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>7075340104</t>
+  </si>
+  <si>
+    <t>102900006857</t>
   </si>
 </sst>
 </file>
@@ -140,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -211,39 +367,439 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>003900560881</t>
+  </si>
+  <si>
+    <t>EISU2205930</t>
+  </si>
+  <si>
+    <t>EVER ELITE</t>
+  </si>
+  <si>
+    <t>01082</t>
+  </si>
+  <si>
+    <t>DJLAXA3986096</t>
+  </si>
+  <si>
+    <t>7075381741</t>
+  </si>
+  <si>
+    <t>EGLV147900108463</t>
   </si>
 </sst>
 </file>
@@ -89,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,6 +153,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,37 +32,82 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>EITU1870523</t>
-  </si>
-  <si>
-    <t>CAPE KORTIA</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
-    <t>7075381181</t>
-  </si>
-  <si>
-    <t>003900560881</t>
-  </si>
-  <si>
-    <t>EISU2205930</t>
-  </si>
-  <si>
-    <t>EVER ELITE</t>
-  </si>
-  <si>
-    <t>01082</t>
-  </si>
-  <si>
-    <t>DJLAXA3986096</t>
-  </si>
-  <si>
-    <t>7075381741</t>
-  </si>
-  <si>
-    <t>EGLV147900108463</t>
+    <t>TCKU6077905</t>
+  </si>
+  <si>
+    <t>SELENITE</t>
+  </si>
+  <si>
+    <t>002B</t>
+  </si>
+  <si>
+    <t>7075382189</t>
+  </si>
+  <si>
+    <t>EGLV082900039269</t>
+  </si>
+  <si>
+    <t>EGHU9311650</t>
+  </si>
+  <si>
+    <t>7075382152</t>
+  </si>
+  <si>
+    <t>EGLV082900039242</t>
+  </si>
+  <si>
+    <t>CSNU6563110</t>
+  </si>
+  <si>
+    <t>EVER SALUTE</t>
+  </si>
+  <si>
+    <t>01083</t>
+  </si>
+  <si>
+    <t>7075394052</t>
+  </si>
+  <si>
+    <t>6202931730</t>
+  </si>
+  <si>
+    <t>CBHU6296479</t>
+  </si>
+  <si>
+    <t>CBHU6323234</t>
+  </si>
+  <si>
+    <t>CBHU7093630</t>
+  </si>
+  <si>
+    <t>XINU8083996</t>
+  </si>
+  <si>
+    <t>TCNU3019860</t>
+  </si>
+  <si>
+    <t>7075382167</t>
+  </si>
+  <si>
+    <t>EGLV082900039251</t>
+  </si>
+  <si>
+    <t>TLLU4720319</t>
+  </si>
+  <si>
+    <t>EVER LYRIC</t>
+  </si>
+  <si>
+    <t>00026</t>
+  </si>
+  <si>
+    <t>DJLAXA4006801</t>
+  </si>
+  <si>
+    <t>7075371461</t>
+  </si>
+  <si>
+    <t>102900019479</t>
   </si>
 </sst>
 </file>
@@ -107,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -158,19 +203,159 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,30 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCKU6077905</t>
-  </si>
-  <si>
-    <t>SELENITE</t>
-  </si>
-  <si>
-    <t>002B</t>
-  </si>
-  <si>
-    <t>7075382189</t>
-  </si>
-  <si>
-    <t>EGLV082900039269</t>
-  </si>
-  <si>
-    <t>EGHU9311650</t>
-  </si>
-  <si>
-    <t>7075382152</t>
-  </si>
-  <si>
-    <t>EGLV082900039242</t>
-  </si>
-  <si>
     <t>CSNU6563110</t>
   </si>
   <si>
@@ -83,13 +59,49 @@
     <t>XINU8083996</t>
   </si>
   <si>
-    <t>TCNU3019860</t>
-  </si>
-  <si>
-    <t>7075382167</t>
-  </si>
-  <si>
-    <t>EGLV082900039251</t>
+    <t>LTIU8035569</t>
+  </si>
+  <si>
+    <t>EVER LEGION</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>7075372540</t>
+  </si>
+  <si>
+    <t>102900021163</t>
+  </si>
+  <si>
+    <t>HMCU9086807</t>
+  </si>
+  <si>
+    <t>00973</t>
+  </si>
+  <si>
+    <t>DJLAXA4008770</t>
+  </si>
+  <si>
+    <t>7075385263</t>
+  </si>
+  <si>
+    <t>061900016487</t>
+  </si>
+  <si>
+    <t>UETU2506746</t>
+  </si>
+  <si>
+    <t>1083E</t>
+  </si>
+  <si>
+    <t>7075401837</t>
+  </si>
+  <si>
+    <t>6198957450</t>
+  </si>
+  <si>
+    <t>CCLU7216035</t>
   </si>
   <si>
     <t>TLLU4720319</t>
@@ -152,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -209,153 +221,173 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B11" t="s">
         <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,94 +32,121 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CSNU6563110</t>
-  </si>
-  <si>
-    <t>EVER SALUTE</t>
-  </si>
-  <si>
-    <t>01083</t>
-  </si>
-  <si>
-    <t>7075394052</t>
-  </si>
-  <si>
-    <t>6202931730</t>
-  </si>
-  <si>
-    <t>CBHU6296479</t>
-  </si>
-  <si>
-    <t>CBHU6323234</t>
-  </si>
-  <si>
-    <t>CBHU7093630</t>
-  </si>
-  <si>
-    <t>XINU8083996</t>
-  </si>
-  <si>
-    <t>LTIU8035569</t>
+    <t>EGHU9138333</t>
+  </si>
+  <si>
+    <t>EVER ENVOY</t>
+  </si>
+  <si>
+    <t>01084</t>
+  </si>
+  <si>
+    <t>DJLAXA4043014</t>
+  </si>
+  <si>
+    <t>7075401945</t>
+  </si>
+  <si>
+    <t>149901175781</t>
+  </si>
+  <si>
+    <t>LTIU8028071</t>
+  </si>
+  <si>
+    <t>CAPE AKRITAS</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>DJLAXA4083997</t>
+  </si>
+  <si>
+    <t>7075387929</t>
+  </si>
+  <si>
+    <t>102900028397</t>
+  </si>
+  <si>
+    <t>BEAU4396812</t>
   </si>
   <si>
     <t>EVER LEGION</t>
   </si>
   <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>7075372540</t>
-  </si>
-  <si>
-    <t>102900021163</t>
-  </si>
-  <si>
-    <t>HMCU9086807</t>
-  </si>
-  <si>
-    <t>00973</t>
-  </si>
-  <si>
-    <t>DJLAXA4008770</t>
-  </si>
-  <si>
-    <t>7075385263</t>
-  </si>
-  <si>
-    <t>061900016487</t>
-  </si>
-  <si>
-    <t>UETU2506746</t>
-  </si>
-  <si>
-    <t>1083E</t>
-  </si>
-  <si>
-    <t>7075401837</t>
-  </si>
-  <si>
-    <t>6198957450</t>
-  </si>
-  <si>
-    <t>CCLU7216035</t>
-  </si>
-  <si>
-    <t>TLLU4720319</t>
+    <t>973</t>
+  </si>
+  <si>
+    <t>7075387155</t>
+  </si>
+  <si>
+    <t>061900016479</t>
+  </si>
+  <si>
+    <t>TCNU3852990</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>7075382367</t>
+  </si>
+  <si>
+    <t>082900055604</t>
+  </si>
+  <si>
+    <t>CAIU7002012</t>
+  </si>
+  <si>
+    <t>DJLAXA4045292</t>
+  </si>
+  <si>
+    <t>7075399564</t>
+  </si>
+  <si>
+    <t>6204573480</t>
+  </si>
+  <si>
+    <t>EGSU9126995</t>
+  </si>
+  <si>
+    <t>EVER BONUS</t>
+  </si>
+  <si>
+    <t>010B</t>
+  </si>
+  <si>
+    <t>7075396252</t>
+  </si>
+  <si>
+    <t>EGLV082900062422</t>
+  </si>
+  <si>
+    <t>EMCU8047892</t>
+  </si>
+  <si>
+    <t>APL SANTIAGO</t>
+  </si>
+  <si>
+    <t>E1MA</t>
+  </si>
+  <si>
+    <t>7075396256</t>
+  </si>
+  <si>
+    <t>EGLV080900147545</t>
+  </si>
+  <si>
+    <t>FSCU5001143</t>
   </si>
   <si>
     <t>EVER LYRIC</t>
   </si>
   <si>
-    <t>00026</t>
-  </si>
-  <si>
-    <t>DJLAXA4006801</t>
-  </si>
-  <si>
-    <t>7075371461</t>
-  </si>
-  <si>
-    <t>102900019479</t>
+    <t>7075388420</t>
+  </si>
+  <si>
+    <t>082900056627</t>
   </si>
 </sst>
 </file>
@@ -164,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -204,75 +231,75 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -281,113 +308,73 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,60 +32,27 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>LTIU8028071</t>
+    <t>EGHU9282037</t>
+  </si>
+  <si>
+    <t>EVER LISSOME</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>7075393954</t>
+  </si>
+  <si>
+    <t>061900017181</t>
+  </si>
+  <si>
+    <t>TCLU8336279</t>
   </si>
   <si>
     <t>CAPE AKRITAS</t>
   </si>
   <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>DJLAXA4083997</t>
-  </si>
-  <si>
-    <t>7075387929</t>
-  </si>
-  <si>
-    <t>102900028397</t>
-  </si>
-  <si>
-    <t>EGHU9282037</t>
-  </si>
-  <si>
-    <t>EVER LISSOME</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>7075393954</t>
-  </si>
-  <si>
-    <t>061900017181</t>
-  </si>
-  <si>
-    <t>EISU9243505</t>
-  </si>
-  <si>
-    <t>EVER ENVOY</t>
-  </si>
-  <si>
-    <t>01084</t>
-  </si>
-  <si>
-    <t>7075401947</t>
-  </si>
-  <si>
-    <t>149901175764</t>
-  </si>
-  <si>
-    <t>CLHU9005140</t>
-  </si>
-  <si>
-    <t>TCLU8336279</t>
-  </si>
-  <si>
     <t>030</t>
   </si>
   <si>
@@ -93,6 +60,39 @@
   </si>
   <si>
     <t>082900060993</t>
+  </si>
+  <si>
+    <t>ECMU9778356</t>
+  </si>
+  <si>
+    <t>EVER LEGACY</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>DJLAXA4129577</t>
+  </si>
+  <si>
+    <t>7075408860</t>
+  </si>
+  <si>
+    <t>AUT0102897</t>
+  </si>
+  <si>
+    <t>EITU9021517</t>
+  </si>
+  <si>
+    <t>EVER BRAVE</t>
+  </si>
+  <si>
+    <t>033E</t>
+  </si>
+  <si>
+    <t>7075404375</t>
+  </si>
+  <si>
+    <t>EGLV082900064310</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,44 +177,44 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -228,38 +228,18 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,36 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>EGHU9282037</t>
-  </si>
-  <si>
-    <t>EVER LISSOME</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>7075393954</t>
-  </si>
-  <si>
-    <t>061900017181</t>
-  </si>
-  <si>
-    <t>TCLU8336279</t>
-  </si>
-  <si>
-    <t>CAPE AKRITAS</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>7075396352</t>
-  </si>
-  <si>
-    <t>082900060993</t>
-  </si>
-  <si>
     <t>ECMU9778356</t>
   </si>
   <si>
@@ -80,19 +50,100 @@
     <t>AUT0102897</t>
   </si>
   <si>
-    <t>EITU9021517</t>
-  </si>
-  <si>
-    <t>EVER BRAVE</t>
-  </si>
-  <si>
-    <t>033E</t>
-  </si>
-  <si>
-    <t>7075404375</t>
-  </si>
-  <si>
-    <t>EGLV082900064310</t>
+    <t>BMOU5060452</t>
+  </si>
+  <si>
+    <t>EVER SUPERB</t>
+  </si>
+  <si>
+    <t>01087</t>
+  </si>
+  <si>
+    <t>DJLAXA4161127</t>
+  </si>
+  <si>
+    <t>7075418426</t>
+  </si>
+  <si>
+    <t>6204664440</t>
+  </si>
+  <si>
+    <t>WBPU7026212</t>
+  </si>
+  <si>
+    <t>DJLAXA4161882</t>
+  </si>
+  <si>
+    <t>7075418172</t>
+  </si>
+  <si>
+    <t>6204622280</t>
+  </si>
+  <si>
+    <t>EISU1695181</t>
+  </si>
+  <si>
+    <t>DJLAXA4161829</t>
+  </si>
+  <si>
+    <t>7075419243</t>
+  </si>
+  <si>
+    <t>149901546550</t>
+  </si>
+  <si>
+    <t>CBHU3653799</t>
+  </si>
+  <si>
+    <t>00034</t>
+  </si>
+  <si>
+    <t>DJLAXA4166753</t>
+  </si>
+  <si>
+    <t>7075410186</t>
+  </si>
+  <si>
+    <t>6085350060</t>
+  </si>
+  <si>
+    <t>ECMU4440010</t>
+  </si>
+  <si>
+    <t>CAPE KORTIA</t>
+  </si>
+  <si>
+    <t>DJLAXA4160328</t>
+  </si>
+  <si>
+    <t>7075416712</t>
+  </si>
+  <si>
+    <t>AUT0102906</t>
+  </si>
+  <si>
+    <t>FBLU0029202</t>
+  </si>
+  <si>
+    <t>034E</t>
+  </si>
+  <si>
+    <t>7075409648</t>
+  </si>
+  <si>
+    <t>EGLV082900077870</t>
+  </si>
+  <si>
+    <t>ECMU1940590</t>
+  </si>
+  <si>
+    <t>DJLAXA4166617</t>
+  </si>
+  <si>
+    <t>7075416710</t>
+  </si>
+  <si>
+    <t>AUT0102905</t>
   </si>
 </sst>
 </file>
@@ -137,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,41 +228,41 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -228,19 +279,99 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="59">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -50,7 +50,85 @@
     <t>AUT0102897</t>
   </si>
   <si>
-    <t>BMOU5060452</t>
+    <t>EGSU9159345</t>
+  </si>
+  <si>
+    <t>CAPE KORTIA</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>7075409646</t>
+  </si>
+  <si>
+    <t>082900074943</t>
+  </si>
+  <si>
+    <t>SEGU4921445</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>7075421981</t>
+  </si>
+  <si>
+    <t>6210900790</t>
+  </si>
+  <si>
+    <t>TEMU7853079</t>
+  </si>
+  <si>
+    <t>CBHU8695082</t>
+  </si>
+  <si>
+    <t>CAIU9773343</t>
+  </si>
+  <si>
+    <t>DFSU7382700</t>
+  </si>
+  <si>
+    <t>UETU5108561</t>
+  </si>
+  <si>
+    <t>TCNU3640007</t>
+  </si>
+  <si>
+    <t>CCLU7667337</t>
+  </si>
+  <si>
+    <t>UETU5410165</t>
+  </si>
+  <si>
+    <t>FSCU8532729</t>
+  </si>
+  <si>
+    <t>CBHU8986283</t>
+  </si>
+  <si>
+    <t>FSCU8890358</t>
+  </si>
+  <si>
+    <t>CCLU7277350</t>
+  </si>
+  <si>
+    <t>TGBU5455203</t>
+  </si>
+  <si>
+    <t>DRYU9523200</t>
+  </si>
+  <si>
+    <t>FSCU8624403</t>
+  </si>
+  <si>
+    <t>CBHU8281729</t>
+  </si>
+  <si>
+    <t>DFSU7336665</t>
+  </si>
+  <si>
+    <t>WBPU7026212</t>
   </si>
   <si>
     <t>EVER SUPERB</t>
@@ -59,18 +137,6 @@
     <t>01087</t>
   </si>
   <si>
-    <t>DJLAXA4161127</t>
-  </si>
-  <si>
-    <t>7075418426</t>
-  </si>
-  <si>
-    <t>6204664440</t>
-  </si>
-  <si>
-    <t>WBPU7026212</t>
-  </si>
-  <si>
     <t>DJLAXA4161882</t>
   </si>
   <si>
@@ -80,6 +146,15 @@
     <t>6204622280</t>
   </si>
   <si>
+    <t>EISU1658721</t>
+  </si>
+  <si>
+    <t>7075409644</t>
+  </si>
+  <si>
+    <t>082900072789</t>
+  </si>
+  <si>
     <t>EISU1695181</t>
   </si>
   <si>
@@ -92,27 +167,9 @@
     <t>149901546550</t>
   </si>
   <si>
-    <t>CBHU3653799</t>
-  </si>
-  <si>
-    <t>00034</t>
-  </si>
-  <si>
-    <t>DJLAXA4166753</t>
-  </si>
-  <si>
-    <t>7075410186</t>
-  </si>
-  <si>
-    <t>6085350060</t>
-  </si>
-  <si>
     <t>ECMU4440010</t>
   </si>
   <si>
-    <t>CAPE KORTIA</t>
-  </si>
-  <si>
     <t>DJLAXA4160328</t>
   </si>
   <si>
@@ -120,18 +177,6 @@
   </si>
   <si>
     <t>AUT0102906</t>
-  </si>
-  <si>
-    <t>FBLU0029202</t>
-  </si>
-  <si>
-    <t>034E</t>
-  </si>
-  <si>
-    <t>7075409648</t>
-  </si>
-  <si>
-    <t>EGLV082900077870</t>
   </si>
   <si>
     <t>ECMU1940590</t>
@@ -188,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -248,130 +293,470 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,142 +32,127 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>ECMU9778356</t>
-  </si>
-  <si>
-    <t>EVER LEGACY</t>
+    <t>EGSU9159345</t>
+  </si>
+  <si>
+    <t>CAPE KORTIA</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>7075409646</t>
+  </si>
+  <si>
+    <t>082900074943</t>
+  </si>
+  <si>
+    <t>SEGU4921445</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>7075421981</t>
+  </si>
+  <si>
+    <t>6210900790</t>
+  </si>
+  <si>
+    <t>TEMU7853079</t>
+  </si>
+  <si>
+    <t>CBHU8695082</t>
+  </si>
+  <si>
+    <t>CAIU9773343</t>
+  </si>
+  <si>
+    <t>DFSU7382700</t>
+  </si>
+  <si>
+    <t>UETU5108561</t>
+  </si>
+  <si>
+    <t>TCNU3640007</t>
+  </si>
+  <si>
+    <t>CCLU7667337</t>
+  </si>
+  <si>
+    <t>UETU5410165</t>
+  </si>
+  <si>
+    <t>FSCU8532729</t>
+  </si>
+  <si>
+    <t>CBHU8986283</t>
+  </si>
+  <si>
+    <t>FSCU8890358</t>
+  </si>
+  <si>
+    <t>CCLU7277350</t>
+  </si>
+  <si>
+    <t>TGBU5455203</t>
+  </si>
+  <si>
+    <t>DRYU9523200</t>
+  </si>
+  <si>
+    <t>FSCU8624403</t>
+  </si>
+  <si>
+    <t>CBHU8281729</t>
+  </si>
+  <si>
+    <t>DFSU7336665</t>
+  </si>
+  <si>
+    <t>WBPU7026212</t>
+  </si>
+  <si>
+    <t>EVER SUPERB</t>
+  </si>
+  <si>
+    <t>01087</t>
+  </si>
+  <si>
+    <t>DJLAXA4161882</t>
+  </si>
+  <si>
+    <t>7075418172</t>
+  </si>
+  <si>
+    <t>6204622280</t>
+  </si>
+  <si>
+    <t>EISU1658721</t>
+  </si>
+  <si>
+    <t>7075409644</t>
+  </si>
+  <si>
+    <t>082900072789</t>
+  </si>
+  <si>
+    <t>EISU1695181</t>
+  </si>
+  <si>
+    <t>DJLAXA4161829</t>
+  </si>
+  <si>
+    <t>7075419243</t>
+  </si>
+  <si>
+    <t>149901546550</t>
+  </si>
+  <si>
+    <t>ECMU4440010</t>
   </si>
   <si>
     <t>00001</t>
-  </si>
-  <si>
-    <t>DJLAXA4129577</t>
-  </si>
-  <si>
-    <t>7075408860</t>
-  </si>
-  <si>
-    <t>AUT0102897</t>
-  </si>
-  <si>
-    <t>EGSU9159345</t>
-  </si>
-  <si>
-    <t>CAPE KORTIA</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>7075409646</t>
-  </si>
-  <si>
-    <t>082900074943</t>
-  </si>
-  <si>
-    <t>SEGU4921445</t>
-  </si>
-  <si>
-    <t>00015</t>
-  </si>
-  <si>
-    <t>7075421981</t>
-  </si>
-  <si>
-    <t>6210900790</t>
-  </si>
-  <si>
-    <t>TEMU7853079</t>
-  </si>
-  <si>
-    <t>CBHU8695082</t>
-  </si>
-  <si>
-    <t>CAIU9773343</t>
-  </si>
-  <si>
-    <t>DFSU7382700</t>
-  </si>
-  <si>
-    <t>UETU5108561</t>
-  </si>
-  <si>
-    <t>TCNU3640007</t>
-  </si>
-  <si>
-    <t>CCLU7667337</t>
-  </si>
-  <si>
-    <t>UETU5410165</t>
-  </si>
-  <si>
-    <t>FSCU8532729</t>
-  </si>
-  <si>
-    <t>CBHU8986283</t>
-  </si>
-  <si>
-    <t>FSCU8890358</t>
-  </si>
-  <si>
-    <t>CCLU7277350</t>
-  </si>
-  <si>
-    <t>TGBU5455203</t>
-  </si>
-  <si>
-    <t>DRYU9523200</t>
-  </si>
-  <si>
-    <t>FSCU8624403</t>
-  </si>
-  <si>
-    <t>CBHU8281729</t>
-  </si>
-  <si>
-    <t>DFSU7336665</t>
-  </si>
-  <si>
-    <t>WBPU7026212</t>
-  </si>
-  <si>
-    <t>EVER SUPERB</t>
-  </si>
-  <si>
-    <t>01087</t>
-  </si>
-  <si>
-    <t>DJLAXA4161882</t>
-  </si>
-  <si>
-    <t>7075418172</t>
-  </si>
-  <si>
-    <t>6204622280</t>
-  </si>
-  <si>
-    <t>EISU1658721</t>
-  </si>
-  <si>
-    <t>7075409644</t>
-  </si>
-  <si>
-    <t>082900072789</t>
-  </si>
-  <si>
-    <t>EISU1695181</t>
-  </si>
-  <si>
-    <t>DJLAXA4161829</t>
-  </si>
-  <si>
-    <t>7075419243</t>
-  </si>
-  <si>
-    <t>149901546550</t>
-  </si>
-  <si>
-    <t>ECMU4440010</t>
   </si>
   <si>
     <t>DJLAXA4160328</t>
@@ -233,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -273,390 +258,390 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -664,99 +649,79 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
         <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>52</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>53</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,61 +32,46 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>EISU1765099</t>
-  </si>
-  <si>
-    <t>EVER LUCKY</t>
-  </si>
-  <si>
-    <t>00979</t>
-  </si>
-  <si>
-    <t>DJLAXA4219123</t>
-  </si>
-  <si>
-    <t>7075421978</t>
-  </si>
-  <si>
-    <t>061900024439</t>
-  </si>
-  <si>
-    <t>EGSU9159345</t>
-  </si>
-  <si>
-    <t>CAPE KORTIA</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>7075409646</t>
-  </si>
-  <si>
-    <t>082900074943</t>
-  </si>
-  <si>
-    <t>EISU1658721</t>
-  </si>
-  <si>
-    <t>7075409644</t>
-  </si>
-  <si>
-    <t>082900072789</t>
-  </si>
-  <si>
-    <t>TGBU5727092</t>
-  </si>
-  <si>
-    <t>00036</t>
-  </si>
-  <si>
-    <t>DJLAXA4229676</t>
-  </si>
-  <si>
-    <t>7075428233</t>
-  </si>
-  <si>
-    <t>6210913510</t>
+    <t>TCLU6553505</t>
+  </si>
+  <si>
+    <t>EVER LIVING</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>DJLAXA4309922</t>
+  </si>
+  <si>
+    <t>7075441891</t>
+  </si>
+  <si>
+    <t>AUT0103577</t>
+  </si>
+  <si>
+    <t>TCKU6345119</t>
+  </si>
+  <si>
+    <t>DJLAXA4309990</t>
+  </si>
+  <si>
+    <t>7075441716</t>
+  </si>
+  <si>
+    <t>AUT0103576</t>
+  </si>
+  <si>
+    <t>HJMU4262486</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>7075442222</t>
+  </si>
+  <si>
+    <t>AUT0103495</t>
   </si>
 </sst>
 </file>
@@ -131,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -182,30 +167,30 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -215,26 +200,6 @@
       </c>
       <c r="F4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>AUT0103576</t>
+  </si>
+  <si>
+    <t>DRYU9582327</t>
+  </si>
+  <si>
+    <t>EVER LISSOME</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>7075435046</t>
+  </si>
+  <si>
+    <t>EGLV082900096033</t>
   </si>
   <si>
     <t>HJMU4262486</t>
@@ -116,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -187,19 +202,39 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/EvergreenPortLA/Test.xlsx
+++ b/EvergreenPortLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,61 +32,193 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCLU6553505</t>
-  </si>
-  <si>
-    <t>EVER LIVING</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>DJLAXA4309922</t>
-  </si>
-  <si>
-    <t>7075441891</t>
-  </si>
-  <si>
-    <t>AUT0103577</t>
-  </si>
-  <si>
-    <t>TCKU6345119</t>
-  </si>
-  <si>
-    <t>DJLAXA4309990</t>
-  </si>
-  <si>
-    <t>7075441716</t>
-  </si>
-  <si>
-    <t>AUT0103576</t>
-  </si>
-  <si>
-    <t>DRYU9582327</t>
-  </si>
-  <si>
-    <t>EVER LISSOME</t>
+    <t>LTIU6040191</t>
+  </si>
+  <si>
+    <t>EVER ELITE</t>
+  </si>
+  <si>
+    <t>01094</t>
+  </si>
+  <si>
+    <t>DJLAXA4416588</t>
+  </si>
+  <si>
+    <t>7075463782</t>
+  </si>
+  <si>
+    <t>149902392599</t>
+  </si>
+  <si>
+    <t>EITU1470105</t>
+  </si>
+  <si>
+    <t>EVER LENIENT</t>
+  </si>
+  <si>
+    <t>00859</t>
+  </si>
+  <si>
+    <t>DJLAXA4372404</t>
+  </si>
+  <si>
+    <t>7075450151</t>
+  </si>
+  <si>
+    <t>142950215203</t>
+  </si>
+  <si>
+    <t>CCLU4752775</t>
+  </si>
+  <si>
+    <t>DJLAXA4425976</t>
+  </si>
+  <si>
+    <t>7075462056</t>
+  </si>
+  <si>
+    <t>6213880900</t>
+  </si>
+  <si>
+    <t>BEAU4408024</t>
+  </si>
+  <si>
+    <t>DJLAXA4372397</t>
+  </si>
+  <si>
+    <t>7075450136</t>
+  </si>
+  <si>
+    <t>142950215190</t>
+  </si>
+  <si>
+    <t>BMOU4480070</t>
+  </si>
+  <si>
+    <t>DJLAXA4372400</t>
+  </si>
+  <si>
+    <t>7075450146</t>
+  </si>
+  <si>
+    <t>142950215173</t>
+  </si>
+  <si>
+    <t>TGBU6973510</t>
+  </si>
+  <si>
+    <t>DJLAXA4372395</t>
+  </si>
+  <si>
+    <t>7075450154</t>
+  </si>
+  <si>
+    <t>142950215122</t>
+  </si>
+  <si>
+    <t>FSCU4993506</t>
+  </si>
+  <si>
+    <t>NAVARINO</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>7075456760</t>
+  </si>
+  <si>
+    <t>142950218351</t>
+  </si>
+  <si>
+    <t>DRYU2211514</t>
+  </si>
+  <si>
+    <t>DJLAXA4416691</t>
+  </si>
+  <si>
+    <t>7075463789</t>
+  </si>
+  <si>
+    <t>149902392602</t>
+  </si>
+  <si>
+    <t>TCLU9317519</t>
+  </si>
+  <si>
+    <t>THALASSA ELPIDA</t>
+  </si>
+  <si>
+    <t>00984</t>
+  </si>
+  <si>
+    <t>DJLAXA4414427</t>
+  </si>
+  <si>
+    <t>7075444679</t>
+  </si>
+  <si>
+    <t>061900028256</t>
+  </si>
+  <si>
+    <t>CBHU6357070</t>
+  </si>
+  <si>
+    <t>00860</t>
+  </si>
+  <si>
+    <t>7075459091</t>
+  </si>
+  <si>
+    <t>6213494420</t>
+  </si>
+  <si>
+    <t>EISU1828345</t>
+  </si>
+  <si>
+    <t>EVER LUCENT</t>
   </si>
   <si>
     <t>00031</t>
   </si>
   <si>
-    <t>7075435046</t>
-  </si>
-  <si>
-    <t>EGLV082900096033</t>
-  </si>
-  <si>
-    <t>HJMU4262486</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>7075442222</t>
-  </si>
-  <si>
-    <t>AUT0103495</t>
+    <t>7075463150</t>
+  </si>
+  <si>
+    <t>142950219209</t>
+  </si>
+  <si>
+    <t>EISU2183549</t>
+  </si>
+  <si>
+    <t>EMCU9730100</t>
+  </si>
+  <si>
+    <t>EVER LUCID</t>
+  </si>
+  <si>
+    <t>00039</t>
+  </si>
+  <si>
+    <t>DJLAXA4443153</t>
+  </si>
+  <si>
+    <t>7075464230</t>
+  </si>
+  <si>
+    <t>003901681240</t>
+  </si>
+  <si>
+    <t>EISU3987346</t>
+  </si>
+  <si>
+    <t>DJLAXA4432976</t>
+  </si>
+  <si>
+    <t>7075464204</t>
+  </si>
+  <si>
+    <t>003901727975</t>
   </si>
 </sst>
 </file>
@@ -131,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -182,59 +314,259 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
